--- a/CP092/Default.xlsx
+++ b/CP092/Default.xlsx
@@ -61,6 +61,9 @@
     <t>Negociación Equipo y/o SimCard</t>
   </si>
   <si>
+    <t>DATA FISICA</t>
+  </si>
+  <si>
     <t>s_Nro_Orden</t>
   </si>
   <si>
@@ -85,9 +88,6 @@
     <t>e_Motivo</t>
   </si>
   <si>
-    <t>DATA LOGICA</t>
-  </si>
-  <si>
     <t>e_Producto</t>
   </si>
   <si>
@@ -100,9 +100,6 @@
     <t>Inicio</t>
   </si>
   <si>
-    <t>SUSCRIPCION</t>
-  </si>
-  <si>
     <t>Fin</t>
   </si>
   <si>
@@ -133,10 +130,13 @@
     <t>e_Password</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
     <t>e_Estado</t>
-  </si>
-  <si>
-    <t>CE</t>
   </si>
   <si>
     <t>e_DniContacto</t>
@@ -357,10 +357,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
@@ -668,7 +668,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
@@ -681,7 +681,7 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c t="s">
         <v>7</v>
@@ -691,10 +691,10 @@
       </c>
     </row>
     <row>
-      <c s="4" t="s">
-        <v>0</v>
-      </c>
-      <c s="4" t="s">
+      <c s="3" t="s">
+        <v>0</v>
+      </c>
+      <c s="3" t="s">
         <v>0</v>
       </c>
       <c s="6" t="s">
@@ -719,7 +719,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
@@ -737,16 +737,16 @@
         <v>10</v>
       </c>
       <c t="s">
-        <v>16</v>
-      </c>
-      <c t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c t="s">
+        <v>35</v>
       </c>
       <c t="s">
         <v>1</v>
       </c>
       <c t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s">
         <v>8</v>
@@ -757,21 +757,21 @@
         <v>0</v>
       </c>
       <c s="1" t="s">
+        <v>30</v>
+      </c>
+      <c s="1" t="s">
+        <v>11</v>
+      </c>
+      <c s="1" t="s">
         <v>31</v>
       </c>
       <c s="1" t="s">
-        <v>11</v>
-      </c>
-      <c s="1" t="s">
-        <v>32</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="3" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -793,17 +793,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c t="s">
         <v>2</v>
@@ -814,12 +814,12 @@
     </row>
     <row>
       <c s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c s="1">
-        <v>650006387</v>
-      </c>
-      <c s="3"/>
+        <v>198768999</v>
+      </c>
+      <c s="4"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -839,18 +839,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row>
-      <c s="3" t="s">
+      <c s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -869,18 +869,18 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.30859375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="19" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.53515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="2" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" style="2" customWidth="1"/>
@@ -899,62 +899,62 @@
         <v>45</v>
       </c>
       <c t="s">
-        <v>37</v>
-      </c>
-      <c t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c t="s">
+        <v>21</v>
+      </c>
+      <c t="s">
+        <v>27</v>
       </c>
       <c t="s">
         <v>28</v>
       </c>
       <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
+        <v>14</v>
+      </c>
+      <c t="s">
+        <v>40</v>
+      </c>
+      <c t="s">
+        <v>1</v>
+      </c>
+      <c t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row ht="12.75" customHeight="1">
+      <c s="1" t="s">
+        <v>4</v>
+      </c>
+      <c s="1" t="s">
+        <v>36</v>
+      </c>
+      <c s="1">
+        <v>650006146</v>
+      </c>
+      <c s="1" t="s">
+        <v>15</v>
+      </c>
+      <c s="1" t="s">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>46</v>
+      </c>
+      <c s="1" t="s">
         <v>13</v>
       </c>
-      <c t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>1</v>
-      </c>
-      <c t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row ht="12.75" customHeight="1">
-      <c s="1" t="s">
-        <v>4</v>
-      </c>
-      <c s="1" t="s">
-        <v>4</v>
-      </c>
-      <c s="1">
-        <v>650006387</v>
-      </c>
-      <c s="1" t="s">
-        <v>14</v>
-      </c>
-      <c s="1" t="s">
-        <v>12</v>
-      </c>
-      <c s="1" t="s">
-        <v>46</v>
-      </c>
-      <c s="1" t="s">
-        <v>21</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="1" t="s">
-        <v>0</v>
-      </c>
-      <c s="3" t="s">
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -987,7 +987,7 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s">
         <v>47</v>
@@ -1000,13 +1000,13 @@
       </c>
     </row>
     <row>
-      <c s="4" t="s">
-        <v>19</v>
-      </c>
-      <c s="4">
+      <c s="3" t="s">
+        <v>20</v>
+      </c>
+      <c s="3">
         <v>920951680</v>
       </c>
-      <c s="4" t="s">
+      <c s="3" t="s">
         <v>6</v>
       </c>
       <c s="6" t="s">
@@ -1043,24 +1043,24 @@
         <v>23</v>
       </c>
       <c t="s">
+        <v>33</v>
+      </c>
+      <c t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row s="2" customFormat="1">
+      <c s="1" t="s">
+        <v>37</v>
+      </c>
+      <c s="1" t="s">
+        <v>29</v>
+      </c>
+      <c s="1" t="s">
+        <v>43</v>
+      </c>
+      <c s="4" t="s">
         <v>34</v>
-      </c>
-      <c t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row s="2" customFormat="1">
-      <c s="1" t="s">
-        <v>38</v>
-      </c>
-      <c s="1" t="s">
-        <v>30</v>
-      </c>
-      <c s="1" t="s">
-        <v>43</v>
-      </c>
-      <c s="3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
